--- a/medicine/Enfance/Mitsumasa_Anno/Mitsumasa_Anno.xlsx
+++ b/medicine/Enfance/Mitsumasa_Anno/Mitsumasa_Anno.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mitsumasa Anno (安野 光雅, Anno Mitsumasa?), né le 20 mars 1926 à Tsuwano dans la préfecture de Shimane et mort le 24 décembre 2020[1], est un auteur et illustrateur japonais. Il est lauréat en 1984 du prestigieux prix international, le prix Hans Christian Andersen, catégorie Illustration.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mitsumasa Anno (安野 光雅, Anno Mitsumasa?), né le 20 mars 1926 à Tsuwano dans la préfecture de Shimane et mort le 24 décembre 2020, est un auteur et illustrateur japonais. Il est lauréat en 1984 du prestigieux prix international, le prix Hans Christian Andersen, catégorie Illustration.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mitsumasa Anno a enseigné les mathématiques à des élèves d'école primaire durant dix années[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mitsumasa Anno a enseigné les mathématiques à des élèves d'école primaire durant dix années.
 Fasciné par l'Europe, il y a effectué plusieurs séjours, dont il a tiré l'inspiration de certains de ses livres comme Ce jour-là... et Le Danemark d'Andersen. Dans ces deux livres sans texte, le lecteur est invité à suivre page à page le déplacement à cheval d'un personnage minuscule, dans des décors fouillés et très référencés à la culture européenne (personnages de contes traditionnels, détails historiques). Pas d'histoire à proprement parler, mais une promenade visuelle, lente et intemporelle, un chemin à refaire plusieurs fois et dans tous les sens. Il restitue aussi sa passion pour les mathématiques et l'astronomie dans d'autres livres (Dix petits amis déménagent, Comment la terre est devenue ronde, Jeux mathématiques). En France, il est publié à L'École des Loisirs.
-Il est récompensé quatre fois à la Foire du livre de jeunesse de Bologne (Italie) de 1972 à 1982, il est lauréat à deux reprises de la Pomme d'Or de Bratislava[3] de la Biennale d'illustration de Bratislava (BIB) en 1977 et 1979, et il reçoit le prestigieux prix Hans Christian Andersen, catégorie Illustration, en 1984.
+Il est récompensé quatre fois à la Foire du livre de jeunesse de Bologne (Italie) de 1972 à 1982, il est lauréat à deux reprises de la Pomme d'Or de Bratislava de la Biennale d'illustration de Bratislava (BIB) en 1977 et 1979, et il reçoit le prestigieux prix Hans Christian Andersen, catégorie Illustration, en 1984.
 </t>
         </is>
       </c>
@@ -544,15 +558,17 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1972 : "Mention" du Premio Grafico Foire du livre de jeunesse de Bologne (Italie) pour Zwergenspuk[4]
-1977 : Pomme d'Or de Bratislava[3] de la Biennale d'illustration de Bratislava (BIB) pour The A-I-U-E-O Book
-1978 : Premio Grafico Foire du livre de jeunesse de Bologne (Italie) pour Mitsumasa Anno no gashu: Anno 1968-1977[5]
-1979 : Pomme d'Or de Bratislava[3] de la Biennale d'illustration de Bratislava (BIB) pour Le jour suivant...
-1980 : Premio Grafico Foire du livre de jeunesse de Bologne (Italie) pour Uta no ehon 2.: sekai no shoka yori[6]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1972 : "Mention" du Premio Grafico Foire du livre de jeunesse de Bologne (Italie) pour Zwergenspuk
+1977 : Pomme d'Or de Bratislava de la Biennale d'illustration de Bratislava (BIB) pour The A-I-U-E-O Book
+1978 : Premio Grafico Foire du livre de jeunesse de Bologne (Italie) pour Mitsumasa Anno no gashu: Anno 1968-1977
+1979 : Pomme d'Or de Bratislava de la Biennale d'illustration de Bratislava (BIB) pour Le jour suivant...
+1980 : Premio Grafico Foire du livre de jeunesse de Bologne (Italie) pour Uta no ehon 2.: sekai no shoka yori
 1981 : Pinceau d'argent (nl) pour Comment la terre est devenue ronde
-1982 :  "Mention" Prix critique en herbe Foire du livre de jeunesse de Bologne (Italie), pour 10 petits amis déménagent[7].
+1982 :  "Mention" Prix critique en herbe Foire du livre de jeunesse de Bologne (Italie), pour 10 petits amis déménagent.
 1984 : Prix Hans Christian Andersen, catégorie Illustration
 2012 : Personne de mérite culturel
 2008 : Prix Kan-Kikuchi</t>
@@ -583,7 +599,9 @@
           <t>Ouvrages traduits en français</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Liste non exhaustive
 Ce Jour-là, L'École des Loisirs, 1978
